--- a/templates/carbomica_progbook_mt_darwin.xlsx
+++ b/templates/carbomica_progbook_mt_darwin.xlsx
@@ -39,7 +39,7 @@
     <t>solar_system</t>
   </si>
   <si>
-    <t>Solar sytem</t>
+    <t>Solar system</t>
   </si>
   <si>
     <t>N</t>
@@ -54,13 +54,13 @@
     <t>low_gpw_anaesthetic_gases</t>
   </si>
   <si>
-    <t>Low gpw anaesthetic gases</t>
+    <t>Low GPW anaesthetic gases</t>
   </si>
   <si>
     <t>low_gpw_refridgerant_gases</t>
   </si>
   <si>
-    <t>Low gpw refridgerant gases</t>
+    <t>Low GPW refridgerant gases</t>
   </si>
   <si>
     <t>water_efficient_fixtures_and_appliances</t>
@@ -72,7 +72,7 @@
     <t>low_gpw_inhalers</t>
   </si>
   <si>
-    <t>Low gpw inhalers</t>
+    <t>Low GPW inhalers</t>
   </si>
   <si>
     <t>Provenance</t>
